--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.39330489145335</v>
+        <v>84.57478913639952</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.21049293522653</v>
+        <v>115.7189576727385</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.41005290775065</v>
+        <v>104.6749027650594</v>
       </c>
       <c r="AD2" t="n">
-        <v>67393.30489145336</v>
+        <v>84574.78913639951</v>
       </c>
       <c r="AE2" t="n">
-        <v>92210.49293522653</v>
+        <v>115718.9576727385</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.971548363136157e-06</v>
+        <v>1.00506331871381e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.358723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83410.05290775065</v>
+        <v>104674.9027650594</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.16466240504504</v>
+        <v>84.0848503696225</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.89765419832825</v>
+        <v>115.0486018374616</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.12707106082989</v>
+        <v>104.0685247498508</v>
       </c>
       <c r="AD2" t="n">
-        <v>67164.66240504503</v>
+        <v>84084.85036962249</v>
       </c>
       <c r="AE2" t="n">
-        <v>91897.65419832825</v>
+        <v>115048.6018374616</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.855857194739255e-06</v>
+        <v>1.003671702292962e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.586588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83127.0710608299</v>
+        <v>104068.5247498508</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.84554392132726</v>
+        <v>114.0621587780259</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.2988810156487</v>
+        <v>156.0648777073278</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.4359702661231</v>
+        <v>141.1702648174148</v>
       </c>
       <c r="AD2" t="n">
-        <v>90845.54392132726</v>
+        <v>114062.1587780259</v>
       </c>
       <c r="AE2" t="n">
-        <v>124298.8810156487</v>
+        <v>156064.8777073278</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.61005081968565e-06</v>
+        <v>8.679441082980098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.253255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>112435.9702661231</v>
+        <v>141170.2648174148</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.49463654863231</v>
+        <v>101.3884408832735</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.0315805478729</v>
+        <v>138.7241377587638</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.91207531666876</v>
+        <v>125.4845007516549</v>
       </c>
       <c r="AD2" t="n">
-        <v>77494.63654863232</v>
+        <v>101388.4408832735</v>
       </c>
       <c r="AE2" t="n">
-        <v>106031.5805478729</v>
+        <v>138724.1377587639</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.319447451557203e-06</v>
+        <v>9.550542817408322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>95912.07531666876</v>
+        <v>125484.5007516549</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.0372076732222</v>
+        <v>137.1018620211942</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.4530296867704</v>
+        <v>187.5888161245852</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.4757580816229</v>
+        <v>169.6856027962646</v>
       </c>
       <c r="AD2" t="n">
-        <v>107037.2076732222</v>
+        <v>137101.8620211942</v>
       </c>
       <c r="AE2" t="n">
-        <v>146453.0296867704</v>
+        <v>187588.8161245852</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.859510447376538e-06</v>
+        <v>7.680397901022682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.496744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132475.7580816229</v>
+        <v>169685.6027962646</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.17352854696557</v>
+        <v>84.20723470641762</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.90978524485047</v>
+        <v>115.2160534862804</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.13804433729808</v>
+        <v>104.2199950483263</v>
       </c>
       <c r="AD2" t="n">
-        <v>67173.52854696556</v>
+        <v>84207.23470641763</v>
       </c>
       <c r="AE2" t="n">
-        <v>91909.78524485047</v>
+        <v>115216.0534862804</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.897360056988516e-06</v>
+        <v>1.005556665674858e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.518229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83138.04433729808</v>
+        <v>104219.9950483263</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.9980820171634</v>
+        <v>160.0895510678103</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.2914021082199</v>
+        <v>219.0415864234155</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.2299068895244</v>
+        <v>198.1365648420249</v>
       </c>
       <c r="AD2" t="n">
-        <v>122998.0820171634</v>
+        <v>160089.5510678103</v>
       </c>
       <c r="AE2" t="n">
-        <v>168291.4021082199</v>
+        <v>219041.5864234155</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.336916095506659e-06</v>
+        <v>6.948758316522061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.597005208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>152229.9068895244</v>
+        <v>198136.5648420249</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.4936143266082</v>
+        <v>92.10791193795494</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.34774072974527</v>
+        <v>126.0261086277442</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.53420196538904</v>
+        <v>113.9983536990999</v>
       </c>
       <c r="AD2" t="n">
-        <v>67493.61432660819</v>
+        <v>92107.91193795494</v>
       </c>
       <c r="AE2" t="n">
-        <v>92347.74072974527</v>
+        <v>126026.1086277442</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.686501714467383e-06</v>
+        <v>9.928406583321446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>83534.20196538905</v>
+        <v>113998.3536990999</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.16399887069649</v>
+        <v>92.15417638106462</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.89674632135947</v>
+        <v>126.08940967985</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.12624983036481</v>
+        <v>114.0556133876363</v>
       </c>
       <c r="AD2" t="n">
-        <v>67163.99887069649</v>
+        <v>92154.17638106462</v>
       </c>
       <c r="AE2" t="n">
-        <v>91896.74632135947</v>
+        <v>126089.40967985</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.820353544361304e-06</v>
+        <v>1.002893757439593e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.654947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83126.24983036482</v>
+        <v>114055.6133876363</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.17629400731379</v>
+        <v>84.25503307795132</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.91356906970242</v>
+        <v>115.2814533269282</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.14146703921678</v>
+        <v>104.2791532199719</v>
       </c>
       <c r="AD2" t="n">
-        <v>67176.29400731379</v>
+        <v>84255.03307795133</v>
       </c>
       <c r="AE2" t="n">
-        <v>91913.56906970243</v>
+        <v>115281.4533269282</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.9675177936351e-06</v>
+        <v>1.008041318353353e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.397786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83141.46703921678</v>
+        <v>104279.1532199719</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.8028187257448</v>
+        <v>92.9945267006935</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.0850048817504</v>
+        <v>127.2392140608052</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.05583950359339</v>
+        <v>115.0956820522341</v>
       </c>
       <c r="AD2" t="n">
-        <v>76802.8187257448</v>
+        <v>92994.5267006935</v>
       </c>
       <c r="AE2" t="n">
-        <v>105085.0048817504</v>
+        <v>127239.2140608052</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.45783434813162e-06</v>
+        <v>9.697630480574782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.133463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95055.83950359339</v>
+        <v>115095.6820522341</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.64427634493501</v>
+        <v>104.218852321176</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.3410566694731</v>
+        <v>142.5968315570398</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.81026108561255</v>
+        <v>128.9875900891845</v>
       </c>
       <c r="AD2" t="n">
-        <v>80644.276344935</v>
+        <v>104218.852321176</v>
       </c>
       <c r="AE2" t="n">
-        <v>110341.0566694732</v>
+        <v>142596.8315570398</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.881218479823029e-06</v>
+        <v>9.020299722891703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.869140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>99810.26108561255</v>
+        <v>128987.5900891845</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.18418972425523</v>
+        <v>124.7718892300488</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.8669634938701</v>
+        <v>170.7184033917398</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.5680813639684</v>
+        <v>154.4252785768636</v>
       </c>
       <c r="AD2" t="n">
-        <v>94184.18972425524</v>
+        <v>124771.8892300488</v>
       </c>
       <c r="AE2" t="n">
-        <v>128866.96349387</v>
+        <v>170718.4033917398</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.27659014432729e-06</v>
+        <v>8.244568017841932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.767578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>116568.0813639684</v>
+        <v>154425.2785768636</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.1167714599642</v>
+        <v>197.7819675603802</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.8693658635252</v>
+        <v>270.6140135405798</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.7442895425843</v>
+        <v>244.7869918974995</v>
       </c>
       <c r="AD2" t="n">
-        <v>154116.7714599642</v>
+        <v>197781.9675603802</v>
       </c>
       <c r="AE2" t="n">
-        <v>210869.3658635252</v>
+        <v>270614.0135405798</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.625417979539818e-06</v>
+        <v>5.908257153751803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>190744.2895425843</v>
+        <v>244786.9918974995</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.53215974466895</v>
+        <v>92.33840580776055</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.4004802712398</v>
+        <v>126.341480509084</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.58190811906374</v>
+        <v>114.2836269307119</v>
       </c>
       <c r="AD2" t="n">
-        <v>67532.15974466894</v>
+        <v>92338.40580776056</v>
       </c>
       <c r="AE2" t="n">
-        <v>92400.48027123979</v>
+        <v>126341.480509084</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.73284721520825e-06</v>
+        <v>9.9469792371877e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.762369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83581.90811906374</v>
+        <v>114283.6269307119</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.24948261756674</v>
+        <v>84.22219695295921</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.01370895510404</v>
+        <v>115.2365254920864</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.23204971450291</v>
+        <v>104.2385132346308</v>
       </c>
       <c r="AD2" t="n">
-        <v>67249.48261756674</v>
+        <v>84222.1969529592</v>
       </c>
       <c r="AE2" t="n">
-        <v>92013.70895510404</v>
+        <v>115236.5254920864</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.922416119854363e-06</v>
+        <v>1.005251820254195e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.462890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>83232.04971450291</v>
+        <v>104238.5132346308</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.6078959154618</v>
+        <v>274.4478668229817</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.7407233742176</v>
+        <v>375.5116791725643</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.3247666171999</v>
+        <v>339.6733715462858</v>
       </c>
       <c r="AD2" t="n">
-        <v>217607.8959154618</v>
+        <v>274447.8668229817</v>
       </c>
       <c r="AE2" t="n">
-        <v>297740.7233742176</v>
+        <v>375511.6791725643</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.697197593042005e-06</v>
+        <v>4.496067691152888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.716796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>269324.7666171999</v>
+        <v>339673.3715462858</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.89162753407346</v>
+        <v>102.7192504615208</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.9430052450451</v>
+        <v>140.5450101348957</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.64107632344486</v>
+        <v>127.1315916238197</v>
       </c>
       <c r="AD2" t="n">
-        <v>78891.62753407346</v>
+        <v>102719.2504615208</v>
       </c>
       <c r="AE2" t="n">
-        <v>107943.0052450451</v>
+        <v>140545.0101348957</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.114464999281527e-06</v>
+        <v>9.305644770692996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.563151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97641.07632344487</v>
+        <v>127131.5916238197</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.90700748722809</v>
+        <v>92.32033009174968</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.9133634897242</v>
+        <v>126.3167485169936</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.04584248301229</v>
+        <v>114.2612553252351</v>
       </c>
       <c r="AD2" t="n">
-        <v>67907.00748722808</v>
+        <v>92320.33009174968</v>
       </c>
       <c r="AE2" t="n">
-        <v>92913.3634897242</v>
+        <v>126316.7485169936</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.591276672874991e-06</v>
+        <v>9.840187432188553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.970703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>84045.8424830123</v>
+        <v>114261.255325235</v>
       </c>
     </row>
   </sheetData>
